--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -5,37 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Documention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sampathproducts\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E785EBD-E38A-490D-B5C7-DBBBA74979B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D4243F-5575-44A0-9C7A-2792D669270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Module creation" sheetId="1" r:id="rId1"/>
+    <sheet name="Projet logs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -143,6 +134,48 @@
   </si>
   <si>
     <t>Customer Order Report</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Created the Table View UI tempelate</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>Decided the project topic</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>Gathering Requirements</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>Defining the scope and created the scope Documents</t>
+  </si>
+  <si>
+    <t>Module Identification</t>
+  </si>
+  <si>
+    <t>Create the module based attibute list (er-word)</t>
+  </si>
+  <si>
+    <t>Designing the ER -Diagram</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>Wireframe drawing started</t>
   </si>
 </sst>
 </file>
@@ -222,16 +255,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -603,7 +648,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
@@ -619,7 +664,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
@@ -715,7 +760,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
@@ -731,7 +776,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
@@ -896,42 +941,42 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="2"/>
@@ -944,18 +989,18 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -967,9 +1012,9 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
@@ -983,9 +1028,9 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
@@ -999,9 +1044,9 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
@@ -1015,9 +1060,9 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
@@ -1028,4 +1073,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
+  <dimension ref="C3:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>44968</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>45057</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>45210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <v>44938</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sampathproducts\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D4243F-5575-44A0-9C7A-2792D669270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C7A2D6-E0C0-4180-954E-5D396A6D96A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Projet logs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,9 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,6 +275,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,21 +593,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,27 +621,26 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -647,12 +651,11 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -663,12 +666,11 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -682,9 +684,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -698,9 +699,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -714,9 +714,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -730,9 +729,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -746,9 +744,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -759,12 +756,11 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -775,12 +771,11 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -794,9 +789,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -810,9 +804,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -826,9 +819,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -842,9 +834,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -858,9 +849,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -874,9 +864,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -890,9 +879,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -906,9 +894,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -922,9 +909,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -938,9 +924,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -949,14 +934,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -965,14 +949,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -986,23 +969,21 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1011,14 +992,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -1027,14 +1007,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -1043,14 +1022,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -1059,16 +1037,15 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1085,20 +1062,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -1106,7 +1083,7 @@
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
@@ -1114,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
@@ -1122,7 +1099,7 @@
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>44968</v>
       </c>
       <c r="D7" t="s">
@@ -1130,7 +1107,7 @@
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>45057</v>
       </c>
       <c r="D8" t="s">
@@ -1138,7 +1115,7 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>45210</v>
       </c>
       <c r="D9" t="s">
@@ -1146,7 +1123,7 @@
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D10" t="s">
@@ -1154,10 +1131,10 @@
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>44938</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
     </row>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sampathproducts\docs\documents\status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Project\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C7A2D6-E0C0-4180-954E-5D396A6D96A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD4F88E-3DA1-43EF-B32A-81DF92C8B738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
   <sheets>
     <sheet name="Module creation" sheetId="1" r:id="rId1"/>
     <sheet name="Projet logs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -137,53 +136,26 @@
     <t>Customer Order Report</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Created the Table View UI tempelate</t>
-  </si>
-  <si>
-    <t>23/10/2023</t>
-  </si>
-  <si>
-    <t>Decided the project topic</t>
-  </si>
-  <si>
-    <t>28/10/2023</t>
-  </si>
-  <si>
-    <t>Gathering Requirements</t>
-  </si>
-  <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
-    <t>Defining the scope and created the scope Documents</t>
-  </si>
-  <si>
-    <t>Module Identification</t>
-  </si>
-  <si>
-    <t>Create the module based attibute list (er-word)</t>
-  </si>
-  <si>
-    <t>Designing the ER -Diagram</t>
-  </si>
-  <si>
-    <t>15/11/2023</t>
-  </si>
-  <si>
-    <t>Wireframe drawing started</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Completed Date</t>
+  </si>
+  <si>
+    <t>Supervisor meeting</t>
+  </si>
+  <si>
+    <t>Client Meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +165,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +192,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -252,32 +253,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,384 +705,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="4.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="8.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
@@ -983,65 +1097,70 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1054,91 +1173,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
-  <dimension ref="C3:D11"/>
+  <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="3:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G3" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="7">
-        <v>44968</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="7">
-        <v>45057</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="7">
-        <v>45210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="7">
-        <v>44938</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>38</v>
-      </c>
+    <row r="4" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="D9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="D12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="13"/>
+      <c r="D13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="14"/>
+      <c r="D14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="11">
+        <v>4</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="13"/>
+      <c r="D16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="13"/>
+      <c r="D18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
+      <c r="D19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="13"/>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="13"/>
+      <c r="D21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="13"/>
+      <c r="D22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="13"/>
+      <c r="D24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" s="14"/>
+      <c r="D25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="19">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="20"/>
+      <c r="D27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="20"/>
+      <c r="D28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="21"/>
+      <c r="D29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="F15:F25"/>
+    <mergeCell ref="G15:G25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Project\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD4F88E-3DA1-43EF-B32A-81DF92C8B738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA295E-2CEC-4046-BC57-0E588A67D383}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +176,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,46 +318,73 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,33 +403,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -761,12 +775,12 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -776,12 +790,12 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -866,12 +880,12 @@
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -1085,23 +1099,23 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="4"/>
@@ -1116,7 +1130,7 @@
       <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="4"/>
@@ -1131,7 +1145,7 @@
       <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="4"/>
@@ -1146,7 +1160,7 @@
       <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="4"/>
@@ -1195,276 +1209,276 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="11">
+      <c r="C4" s="29">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="14"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="11">
+      <c r="C8" s="29">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="13"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="11">
+      <c r="C11" s="29">
         <v>3</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="13"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="13"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="11">
+      <c r="C15" s="29">
         <v>4</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="13"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="13"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="13"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="13"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="13"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="14"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="19">
+      <c r="C26" s="15">
         <v>5</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="20"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="20"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="21"/>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="F4:F7"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="F15:F25"/>
     <mergeCell ref="G15:G25"/>
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="G26:G29"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C25"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Project\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA295E-2CEC-4046-BC57-0E588A67D383}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999E10A-1962-45FC-8940-096319FA3670}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -346,9 +346,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,35 +405,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +722,7 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -775,12 +775,12 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -790,13 +790,13 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
@@ -880,12 +880,12 @@
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="39"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
       <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1099,17 +1099,17 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G29"/>
     </sheetView>
   </sheetViews>
@@ -1220,210 +1220,210 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="30"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="30"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="31"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="31"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="15">
@@ -1433,8 +1433,8 @@
         <v>32</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
@@ -1442,8 +1442,8 @@
         <v>33</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="16"/>
@@ -1451,8 +1451,8 @@
         <v>35</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
@@ -1460,16 +1460,13 @@
         <v>34</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C25"/>
     <mergeCell ref="F4:F7"/>
@@ -1477,8 +1474,11 @@
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="F15:F25"/>
     <mergeCell ref="G15:G25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Project\Sampath_Products\docs\documents\status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999E10A-1962-45FC-8940-096319FA3670}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE2F0A-9CED-46FD-BFEB-F4D1710903FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
   <sheets>
     <sheet name="Module creation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Client Meeting</t>
+  </si>
+  <si>
+    <t>21/3/2024</t>
   </si>
 </sst>
 </file>
@@ -351,6 +354,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,6 +381,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,42 +406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -791,10 +794,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
     </row>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,74 +1223,76 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="28">
+      <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="29"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="29"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="30"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="28">
+      <c r="C8" s="25">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="29"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="30"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1298,7 +1303,7 @@
       <c r="G11" s="31"/>
     </row>
     <row r="12" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="29"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1312,7 @@
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1321,7 @@
       <c r="G13" s="32"/>
     </row>
     <row r="14" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="30"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
@@ -1325,7 +1330,7 @@
       <c r="G14" s="33"/>
     </row>
     <row r="15" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="28">
+      <c r="C15" s="25">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1336,7 +1341,7 @@
       <c r="G15" s="34"/>
     </row>
     <row r="16" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="29"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1350,7 @@
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="29"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
@@ -1354,7 +1359,7 @@
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="29"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1368,7 @@
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="29"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="13" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1377,7 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="29"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1386,7 @@
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="29"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1395,7 @@
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="29"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1404,7 @@
       <c r="G22" s="35"/>
     </row>
     <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="29"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1413,7 @@
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="29"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
@@ -1417,7 +1422,7 @@
       <c r="G24" s="35"/>
     </row>
     <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="30"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
@@ -1433,8 +1438,8 @@
         <v>32</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
@@ -1442,8 +1447,8 @@
         <v>33</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="16"/>
@@ -1451,8 +1456,8 @@
         <v>35</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
@@ -1460,8 +1465,8 @@
         <v>34</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE2F0A-9CED-46FD-BFEB-F4D1710903FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6DC8A7-5A93-48E0-8D08-5B291C3FE9A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
   <sheets>
     <sheet name="Module creation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>21/3/2024</t>
+  </si>
+  <si>
+    <t>24/3/2023</t>
+  </si>
+  <si>
+    <t>24/3/2024</t>
   </si>
 </sst>
 </file>
@@ -724,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -989,12 +995,12 @@
         <v>23</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
@@ -1192,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1235,9 @@
       <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
@@ -1363,7 +1371,9 @@
       <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
     </row>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6DC8A7-5A93-48E0-8D08-5B291C3FE9A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BB7340-91AB-43A8-ADEC-1B6C7427777B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -785,12 +785,12 @@
         <v>9</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="4"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4">

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BB7340-91AB-43A8-ADEC-1B6C7427777B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9CBAC-E9E9-4315-B51B-119E73C78DBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -949,13 +949,13 @@
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4">

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9CBAC-E9E9-4315-B51B-119E73C78DBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266B36A0-A8BA-4362-ABF8-07FDEF2E8985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -154,10 +154,10 @@
     <t>21/3/2024</t>
   </si>
   <si>
-    <t>24/3/2023</t>
-  </si>
-  <si>
     <t>24/3/2024</t>
+  </si>
+  <si>
+    <t>27/3/2024</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1024,13 +1024,13 @@
       <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -1391,7 +1391,9 @@
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
     </row>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266B36A0-A8BA-4362-ABF8-07FDEF2E8985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A1EF4-6EFD-4EB4-8BCB-C699D553019E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
   <sheets>
     <sheet name="Module creation" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1099,13 +1102,13 @@
       <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
@@ -1198,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1441,9 @@
       <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="40">
+        <v>45630</v>
+      </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
     </row>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A1EF4-6EFD-4EB4-8BCB-C699D553019E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A45FD91-6A12-4ABE-89C7-955F00412D6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>27/3/2024</t>
+  </si>
+  <si>
+    <t>25/4/2023</t>
   </si>
 </sst>
 </file>
@@ -357,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,9 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C62ED-9DA5-4DDD-8AAE-F404D5599198}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1012,13 +1015,13 @@
       <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1111,17 +1114,17 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1201,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1235,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="25">
+      <c r="C4" s="26">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1241,211 +1244,213 @@
       <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="25">
+      <c r="C8" s="26">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="25">
+      <c r="C11" s="26">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="25">
+      <c r="C15" s="26">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="26"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="26"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="26"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="E19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="26"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="26"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="21">
         <v>45630</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="15">
@@ -1455,8 +1460,8 @@
         <v>32</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="16"/>
@@ -1464,8 +1469,8 @@
         <v>33</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="16"/>
@@ -1473,8 +1478,8 @@
         <v>35</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
@@ -1482,8 +1487,8 @@
         <v>34</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A45FD91-6A12-4ABE-89C7-955F00412D6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B5FA73-5E14-4639-AE04-53A99CB47636}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>25/4/2023</t>
+  </si>
+  <si>
+    <t>20/3/2024</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1353,9 @@
       <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
     </row>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B5FA73-5E14-4639-AE04-53A99CB47636}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BD017-8910-4365-BB2D-9B69C75E42E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>20/3/2024</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF18B3-1218-4FA4-94C1-A4F1282F1E4B}">
   <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1394,7 @@
     <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" s="27"/>
       <c r="D19" s="13" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>44</v>

--- a/docs/documents/status/Project Progress.xlsx
+++ b/docs/documents/status/Project Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\BIT\Sampath_Products\docs\documents\status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sampath_Products\docs\documents\status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BD017-8910-4365-BB2D-9B69C75E42E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8396FD-9E69-46D3-9CDF-899C86AF1571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{4BBF5CEB-B3BB-458A-B42B-679A065AE060}"/>
   </bookViews>
   <sheets>
     <sheet name="Module creation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
   </si>
 </sst>
 </file>
@@ -366,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,21 +752,21 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="4.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="4.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="7.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="8.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -804,7 +810,7 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -819,7 +825,7 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -834,7 +840,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -849,7 +855,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -864,7 +870,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -894,7 +900,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -909,7 +915,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -924,7 +930,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -939,7 +945,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -954,7 +960,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -969,7 +975,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -984,7 +990,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -999,7 +1005,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1014,7 +1020,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1029,7 +1035,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -1044,7 +1050,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -1059,7 +1065,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1074,7 +1080,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1089,7 +1095,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1104,7 +1110,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -1119,20 +1125,20 @@
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>23</v>
       </c>
@@ -1147,7 +1153,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>24</v>
       </c>
@@ -1162,7 +1168,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>25</v>
       </c>
@@ -1177,7 +1183,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>26</v>
       </c>
@@ -1192,7 +1198,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -1211,19 +1217,19 @@
   <dimension ref="C3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F15" sqref="F15:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1240,8 +1246,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="26">
+    <row r="4" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1250,107 +1256,111 @@
       <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="26"/>
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="26"/>
       <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="28"/>
+      <c r="E6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="27"/>
       <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="26">
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="25">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="27"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="26"/>
       <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="28"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="27"/>
       <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="26">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="25">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="27"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="26"/>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="27"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="26"/>
       <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="28"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="27"/>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="26">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="25">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1359,108 +1369,108 @@
       <c r="E15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="27"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
       <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="27"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
       <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="27"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
       <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="27"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="26"/>
       <c r="D19" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="27"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="26"/>
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="27"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="26"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="27"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="26"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="27"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="26"/>
       <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="27"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="26"/>
       <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="28"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="27"/>
       <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="40">
         <v>45630</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="15">
         <v>5</v>
       </c>
@@ -1468,35 +1478,35 @@
         <v>32</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="16"/>
       <c r="D27" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="16"/>
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="17"/>
       <c r="D29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
